--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1421.985475681464</v>
+        <v>15148.34361309957</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-98753.28099531044</v>
+        <v>-98753.2809953105</v>
       </c>
       <c r="F6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="G6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="H6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="I6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="J6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="K6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="L6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="M6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="N6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="O6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
       <c r="P6" t="n">
-        <v>34346.71900468955</v>
+        <v>34346.71900468954</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15148.34361309957</v>
+        <v>-142603.9519902832</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12692090.89158104</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>26967723.51580678</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1207673.542341369</v>
+        <v>1636822.278227154</v>
       </c>
     </row>
     <row r="11">
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22728,13 +22728,13 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,10 +22983,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23305,7 +23305,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,7 +23357,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>93.17061249236157</v>
@@ -23384,7 +23384,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23518,7 +23518,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
@@ -23533,16 +23533,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,7 +23594,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>93.17061249236157</v>
@@ -23621,7 +23621,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,10 +23676,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>90.4687457914608</v>
@@ -23697,7 +23697,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23758,7 +23758,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>130.6648563030561</v>
@@ -23779,7 +23779,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23916,7 +23916,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
@@ -23931,10 +23931,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -24013,10 +24013,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,7 +24068,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>93.17061249236157</v>
@@ -24095,7 +24095,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,10 +24150,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>90.4687457914608</v>
@@ -24162,16 +24162,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,7 +24229,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
@@ -24250,10 +24250,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24387,10 +24387,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
@@ -24405,10 +24405,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24624,7 +24624,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
@@ -24642,10 +24642,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24724,10 +24724,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24873,7 +24873,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>96.22962838366004</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25101,7 +25101,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -25116,10 +25116,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25177,13 +25177,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>113.4004983079896</v>
@@ -25198,10 +25198,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25335,13 +25335,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
@@ -25350,13 +25350,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25572,28 +25572,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25809,10 +25809,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>90.4687457914608</v>
@@ -25964,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26046,10 +26046,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26064,7 +26064,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>126.4887893424616</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.504219633527099e-12</v>
+        <v>20261.16516028131</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.504219633527099e-12</v>
+        <v>14515.07795070056</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.504219633527099e-12</v>
+        <v>45276.45381267041</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139180.5474022255</v>
+        <v>152653.6449664817</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139180.5474022255</v>
+        <v>216384.2188788655</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139180.5474022255</v>
+        <v>178721.0825352514</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>139180.5474022255</v>
+        <v>211647.7757183077</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>139180.5474022255</v>
+        <v>199868.5025463979</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>139180.5474022255</v>
+        <v>147725.0333395934</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139180.5474022255</v>
+        <v>173205.2386647356</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139180.5474022255</v>
+        <v>153735.4397301787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>139180.5474022255</v>
+        <v>241392.6721436026</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139180.5474022255</v>
+        <v>167110.8644688447</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139180.5474022255</v>
+        <v>144630.8006835069</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139180.5474022255</v>
+        <v>160158.8176102122</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4280.52785076366</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3066.565764232516</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9565.447988592345</v>
       </c>
       <c r="E2" t="n">
-        <v>37958.33110969787</v>
+        <v>40804.76017256889</v>
       </c>
       <c r="F2" t="n">
-        <v>37958.33110969787</v>
+        <v>54268.96592870633</v>
       </c>
       <c r="G2" t="n">
-        <v>37958.33110969787</v>
+        <v>46311.96529273153</v>
       </c>
       <c r="H2" t="n">
-        <v>37958.33110969787</v>
+        <v>53268.30892295469</v>
       </c>
       <c r="I2" t="n">
-        <v>37958.33110969787</v>
+        <v>50779.73008381883</v>
       </c>
       <c r="J2" t="n">
-        <v>37958.33110969787</v>
+        <v>39763.50419505729</v>
       </c>
       <c r="K2" t="n">
-        <v>37958.33110969787</v>
+        <v>45146.64616515776</v>
       </c>
       <c r="L2" t="n">
-        <v>37958.33110969787</v>
+        <v>41033.30836208236</v>
       </c>
       <c r="M2" t="n">
-        <v>37958.33110969787</v>
+        <v>59552.4419705522</v>
       </c>
       <c r="N2" t="n">
-        <v>37958.33110969787</v>
+        <v>43859.10232095546</v>
       </c>
       <c r="O2" t="n">
-        <v>37958.33110969787</v>
+        <v>39109.79307053196</v>
       </c>
       <c r="P2" t="n">
-        <v>37958.33110969787</v>
+        <v>42390.36002687815</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4565.896374147904</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3271.003481848017</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10203.14452116517</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3036.191000395762</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>17398.01047360905</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8910.543128569219</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16330.64300080727</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13676.15890572902</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1925.517957716713</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7667.536059157211</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3279.97573587678</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23033.71825157795</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6294.155958674759</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1228.226091556354</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4727.497511658962</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-98753.2809953105</v>
+        <v>-116748.7698346044</v>
       </c>
       <c r="F6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539563</v>
       </c>
       <c r="G6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539567</v>
       </c>
       <c r="H6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
       <c r="I6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
       <c r="J6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539565</v>
       </c>
       <c r="K6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
       <c r="L6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
       <c r="M6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539565</v>
       </c>
       <c r="N6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
       <c r="O6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
       <c r="P6" t="n">
-        <v>34346.71900468954</v>
+        <v>16351.23016539566</v>
       </c>
     </row>
   </sheetData>
